--- a/Data/df_final_recomend.xlsx
+++ b/Data/df_final_recomend.xlsx
@@ -52,10 +52,10 @@
     <t>recommendedOffer</t>
   </si>
   <si>
-    <t>MF</t>
+    <t>CC</t>
   </si>
   <si>
-    <t>CC</t>
+    <t>MF</t>
   </si>
   <si>
     <t>CL</t>
@@ -462,40 +462,40 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>496</v>
+        <v>253</v>
       </c>
       <c r="B2">
-        <v>785</v>
+        <v>1365</v>
       </c>
       <c r="C2">
-        <v>0.6170055107522351</v>
+        <v>0.5006943769276507</v>
       </c>
       <c r="D2">
-        <v>35.94988681166056</v>
+        <v>5.558522147797541</v>
       </c>
       <c r="E2">
-        <v>0.6670542554271859</v>
+        <v>0.6893569060647998</v>
       </c>
       <c r="F2">
-        <v>14.25166372960839</v>
+        <v>11.99704928156927</v>
       </c>
       <c r="G2">
-        <v>0.4114082600381921</v>
+        <v>0.512100309674857</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>41.78227907219763</v>
       </c>
       <c r="I2">
-        <v>22.18127827371367</v>
+        <v>2.783120783430037</v>
       </c>
       <c r="J2">
-        <v>9.506632937752556</v>
+        <v>8.270248774649522</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.3967180517937</v>
       </c>
       <c r="L2">
-        <v>22.18127827371367</v>
+        <v>21.3967180517937</v>
       </c>
       <c r="M2" t="s">
         <v>12</v>
@@ -512,7 +512,7 @@
         <v>0.3982988512862395</v>
       </c>
       <c r="D3">
-        <v>1.673977380952381</v>
+        <v>3.589078686779491</v>
       </c>
       <c r="E3">
         <v>0.3199810277300998</v>
@@ -524,60 +524,60 @@
         <v>0.8029647490696856</v>
       </c>
       <c r="H3">
-        <v>27.61758187719028</v>
+        <v>23.32105175793161</v>
       </c>
       <c r="I3">
-        <v>0.6667432679124811</v>
+        <v>1.429525918120196</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.17594470192959</v>
+        <v>18.72598247284871</v>
       </c>
       <c r="L3">
-        <v>22.17594470192959</v>
+        <v>18.72598247284871</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>1414</v>
       </c>
       <c r="C4">
-        <v>0.5953295162017537</v>
+        <v>0.2153091191022929</v>
       </c>
       <c r="D4">
-        <v>34.8634092602565</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.5334562988915253</v>
+        <v>0.1160858211327056</v>
       </c>
       <c r="F4">
-        <v>7.863981162042323</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2285170676009768</v>
+        <v>0.9721631134893985</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>19.22702109337571</v>
       </c>
       <c r="I4">
-        <v>20.75521656805224</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.195090285255774</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.69180068926247</v>
       </c>
       <c r="L4">
-        <v>20.75521656805224</v>
+        <v>18.69180068926247</v>
       </c>
       <c r="M4" t="s">
         <v>12</v>
@@ -585,81 +585,81 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B5">
-        <v>596</v>
+        <v>785</v>
       </c>
       <c r="C5">
-        <v>0.5265750152071306</v>
+        <v>0.6170055107522351</v>
       </c>
       <c r="D5">
-        <v>37.15838572659483</v>
+        <v>30.28012295979059</v>
       </c>
       <c r="E5">
-        <v>0.3897195172044247</v>
+        <v>0.6670542554271859</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14.97575372815677</v>
       </c>
       <c r="G5">
-        <v>0.3324529507121765</v>
+        <v>0.4114082600381921</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.5666775290541</v>
+        <v>18.68300273244607</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.989640252596518</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>19.5666775290541</v>
+        <v>18.68300273244607</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="B6">
-        <v>1414</v>
+        <v>506</v>
       </c>
       <c r="C6">
-        <v>0.2153091191022929</v>
+        <v>0.5750635839974418</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>28.41673646179346</v>
       </c>
       <c r="E6">
-        <v>0.1160858211327056</v>
+        <v>0.6263214859392893</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11.42152493853667</v>
       </c>
       <c r="G6">
-        <v>0.9721631134893985</v>
+        <v>0.3965792915814312</v>
       </c>
       <c r="H6">
-        <v>20.10090991623514</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.34143031522973</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.153546471196937</v>
       </c>
       <c r="K6">
-        <v>19.54136316813708</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>19.54136316813708</v>
+        <v>16.34143031522973</v>
       </c>
       <c r="M6" t="s">
         <v>13</v>
@@ -667,43 +667,43 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>245</v>
+        <v>485</v>
       </c>
       <c r="B7">
-        <v>506</v>
+        <v>596</v>
       </c>
       <c r="C7">
-        <v>0.5750635839974418</v>
+        <v>0.5265750152071306</v>
       </c>
       <c r="D7">
-        <v>33.70125487425026</v>
+        <v>30.98355904278261</v>
       </c>
       <c r="E7">
-        <v>0.6263214859392893</v>
+        <v>0.3897195172044247</v>
       </c>
       <c r="F7">
-        <v>12.51417567032722</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3965792915814312</v>
+        <v>0.3324529507121765</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.38036441319761</v>
+        <v>16.31516807412428</v>
       </c>
       <c r="J7">
-        <v>7.837897101144645</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>19.38036441319761</v>
+        <v>16.31516807412428</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -717,7 +717,7 @@
         <v>0.5432954304351919</v>
       </c>
       <c r="D8">
-        <v>35.64103352974654</v>
+        <v>30.02397773879007</v>
       </c>
       <c r="E8">
         <v>0.2441257665732623</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.36361065269875</v>
+        <v>16.31188990897257</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -741,48 +741,48 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>19.36361065269875</v>
+        <v>16.31188990897257</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>393</v>
+        <v>494</v>
       </c>
       <c r="B9">
-        <v>1008</v>
+        <v>488</v>
       </c>
       <c r="C9">
-        <v>0.5631903622923473</v>
+        <v>0.456263908934688</v>
       </c>
       <c r="D9">
-        <v>34.17490433326595</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5212865457567027</v>
+        <v>0.356975328128029</v>
       </c>
       <c r="F9">
-        <v>10.79355479287578</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4435730573595438</v>
+        <v>0.5180976303484174</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.08374598152839</v>
       </c>
       <c r="I9">
-        <v>19.24697675275836</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.626534894413918</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.104415135382</v>
       </c>
       <c r="L9">
-        <v>19.24697675275836</v>
+        <v>16.104415135382</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -799,13 +799,13 @@
         <v>0.5473220705773897</v>
       </c>
       <c r="D10">
-        <v>34.90262291367858</v>
+        <v>29.37760841281697</v>
       </c>
       <c r="E10">
         <v>0.7297632397275375</v>
       </c>
       <c r="F10">
-        <v>10.16478043749551</v>
+        <v>10.34035074270286</v>
       </c>
       <c r="G10">
         <v>0.3498680691845977</v>
@@ -814,139 +814,139 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.10297584169641</v>
+        <v>16.07901346511473</v>
       </c>
       <c r="J10">
-        <v>7.41788310318582</v>
+        <v>7.546007857913888</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>19.10297584169641</v>
+        <v>16.07901346511473</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>525</v>
+        <v>393</v>
       </c>
       <c r="B11">
-        <v>243</v>
+        <v>1008</v>
       </c>
       <c r="C11">
-        <v>0.5419609327171481</v>
+        <v>0.5631903622923473</v>
       </c>
       <c r="D11">
-        <v>35.17285025838802</v>
+        <v>28.39859386886961</v>
       </c>
       <c r="E11">
-        <v>0.4679401107609935</v>
+        <v>0.5212865457567027</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10.79315495640768</v>
       </c>
       <c r="G11">
-        <v>0.4946327143021146</v>
+        <v>0.4435730573595438</v>
       </c>
       <c r="H11">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.06231073235655</v>
+        <v>15.99381436960191</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.626326465042595</v>
       </c>
       <c r="K11">
-        <v>0.02343302855723954</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.06231073235655</v>
+        <v>15.99381436960191</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>529</v>
+        <v>149</v>
       </c>
       <c r="B12">
-        <v>1207</v>
+        <v>200</v>
       </c>
       <c r="C12">
-        <v>0.5716411448498058</v>
+        <v>0.5953295162017537</v>
       </c>
       <c r="D12">
-        <v>32.44068688696225</v>
+        <v>26.79343669163606</v>
       </c>
       <c r="E12">
-        <v>0.4378000948341127</v>
+        <v>0.5334562988915253</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>9.562376183027407</v>
       </c>
       <c r="G12">
-        <v>0.3708663629159637</v>
+        <v>0.2285170676009768</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.54443139177718</v>
+        <v>15.95092370301401</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.101109807206272</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18.54443139177718</v>
+        <v>15.95092370301401</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>392</v>
+        <v>633</v>
       </c>
       <c r="C13">
-        <v>0.5819218083590655</v>
+        <v>0.3862741560779753</v>
       </c>
       <c r="D13">
-        <v>31.67984113702052</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3915673061638792</v>
+        <v>0.2753744502633023</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4014207285673423</v>
+        <v>0.5980994107689096</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>26.56971262691361</v>
       </c>
       <c r="I13">
-        <v>18.43519044298289</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.89132946645629</v>
       </c>
       <c r="L13">
-        <v>18.43519044298289</v>
+        <v>15.89132946645629</v>
       </c>
       <c r="M13" t="s">
         <v>12</v>
@@ -954,31 +954,31 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>594</v>
+        <v>525</v>
       </c>
       <c r="B14">
-        <v>715</v>
+        <v>243</v>
       </c>
       <c r="C14">
-        <v>0.5460798097460819</v>
+        <v>0.5419609327171481</v>
       </c>
       <c r="D14">
-        <v>32.29263000719796</v>
+        <v>28.26225675536474</v>
       </c>
       <c r="E14">
-        <v>0.4461803751644579</v>
+        <v>0.4679401107609935</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4238967236957439</v>
+        <v>0.4946327143021146</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.63435325053128</v>
+        <v>15.31703903182899</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -987,48 +987,48 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>17.63435325053128</v>
+        <v>15.31703903182899</v>
       </c>
       <c r="M14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>287</v>
+        <v>574</v>
       </c>
       <c r="B15">
-        <v>766</v>
+        <v>1278</v>
       </c>
       <c r="C15">
-        <v>0.5357407059544189</v>
+        <v>0.4308654191219198</v>
       </c>
       <c r="D15">
-        <v>32.88031848846095</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.403064904621527</v>
+        <v>0.3715318232666304</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3229396713598364</v>
+        <v>0.6397422224929353</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>23.25939058486623</v>
       </c>
       <c r="I15">
-        <v>17.6153250390142</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.88001422659358</v>
       </c>
       <c r="L15">
-        <v>17.6153250390142</v>
+        <v>14.88001422659358</v>
       </c>
       <c r="M15" t="s">
         <v>12</v>
@@ -1036,40 +1036,40 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>494</v>
+        <v>212</v>
       </c>
       <c r="B16">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="C16">
-        <v>0.456263908934688</v>
+        <v>0.5819218083590655</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>25.30845103014439</v>
       </c>
       <c r="E16">
-        <v>0.356975328128029</v>
+        <v>0.3915673061638792</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.5180976303484174</v>
+        <v>0.4014207285673423</v>
       </c>
       <c r="H16">
-        <v>33.74030876661038</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.72753959022848</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.48077401920477</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>17.48077401920477</v>
+        <v>14.72753959022848</v>
       </c>
       <c r="M16" t="s">
         <v>13</v>
@@ -1077,40 +1077,40 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>253</v>
+        <v>529</v>
       </c>
       <c r="B17">
-        <v>1365</v>
+        <v>1207</v>
       </c>
       <c r="C17">
-        <v>0.5006943769276507</v>
+        <v>0.5716411448498058</v>
       </c>
       <c r="D17">
-        <v>5.68505865967744</v>
+        <v>25.30537858186679</v>
       </c>
       <c r="E17">
-        <v>0.6893569060647998</v>
+        <v>0.4378000948341127</v>
       </c>
       <c r="F17">
-        <v>12.82678942290844</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.512100309674857</v>
+        <v>0.3708663629159637</v>
       </c>
       <c r="H17">
-        <v>33.58281709312513</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.846476903404341</v>
+        <v>14.46559558339609</v>
       </c>
       <c r="J17">
-        <v>8.842235871320861</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>17.19777103314346</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>17.19777103314346</v>
+        <v>14.46559558339609</v>
       </c>
       <c r="M17" t="s">
         <v>13</v>
@@ -1118,72 +1118,72 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>68</v>
+        <v>461</v>
       </c>
       <c r="B18">
-        <v>633</v>
+        <v>151</v>
       </c>
       <c r="C18">
-        <v>0.3862741560779753</v>
+        <v>0.5594113623565158</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4.342573619899646</v>
       </c>
       <c r="E18">
-        <v>0.2753744502633023</v>
+        <v>0.5211303509228848</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>13.40853338235062</v>
       </c>
       <c r="G18">
-        <v>0.5980994107689096</v>
+        <v>0.5206459227867506</v>
       </c>
       <c r="H18">
-        <v>26.79753139572321</v>
+        <v>27.74905852470942</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.429285024841527</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.987593706905595</v>
       </c>
       <c r="K18">
-        <v>16.02758773784341</v>
+        <v>14.44743418206088</v>
       </c>
       <c r="L18">
-        <v>16.02758773784341</v>
+        <v>14.44743418206088</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>501</v>
+        <v>594</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>715</v>
       </c>
       <c r="C19">
-        <v>0.5166852576563408</v>
+        <v>0.5460798097460819</v>
       </c>
       <c r="D19">
-        <v>30.98958292112458</v>
+        <v>26.29533433399165</v>
       </c>
       <c r="E19">
-        <v>0.3676894212058129</v>
+        <v>0.4461803751644579</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.407443643957149</v>
+        <v>0.4238967236957439</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.01186063626379</v>
+        <v>14.35935117031578</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1192,39 +1192,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>16.01186063626379</v>
+        <v>14.35935117031578</v>
       </c>
       <c r="M19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="B20">
-        <v>1098</v>
+        <v>766</v>
       </c>
       <c r="C20">
-        <v>0.5186622549534647</v>
+        <v>0.5357407059544189</v>
       </c>
       <c r="D20">
-        <v>26.39625868338588</v>
+        <v>26.63740772364522</v>
       </c>
       <c r="E20">
-        <v>0.3028775030640816</v>
+        <v>0.403064904621527</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2480346388793884</v>
+        <v>0.3229396713598364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.6907430510599</v>
+        <v>14.27074361866138</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.6907430510599</v>
+        <v>14.27074361866138</v>
       </c>
       <c r="M20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1250,72 +1250,72 @@
         <v>0.2621982317120583</v>
       </c>
       <c r="D21">
-        <v>0.04685407509157509</v>
+        <v>0.887546925866792</v>
       </c>
       <c r="E21">
         <v>0.9010848486000123</v>
       </c>
       <c r="F21">
-        <v>9.571538718103794</v>
+        <v>10.0730964576372</v>
       </c>
       <c r="G21">
         <v>0.6117189143869394</v>
       </c>
       <c r="H21">
-        <v>21.16640985118056</v>
+        <v>21.55849861187132</v>
       </c>
       <c r="I21">
-        <v>0.01228505563751498</v>
+        <v>0.2327132345237461</v>
       </c>
       <c r="J21">
-        <v>8.624768516671713</v>
+        <v>9.076714596463336</v>
       </c>
       <c r="K21">
-        <v>12.94789325563319</v>
+        <v>13.18774136666626</v>
       </c>
       <c r="L21">
-        <v>12.94789325563319</v>
+        <v>13.18774136666626</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>26</v>
+        <v>501</v>
       </c>
       <c r="B22">
-        <v>1289</v>
+        <v>110</v>
       </c>
       <c r="C22">
-        <v>0.5122685258570748</v>
+        <v>0.5166852576563408</v>
       </c>
       <c r="D22">
-        <v>14.9839539140356</v>
+        <v>23.62357904558196</v>
       </c>
       <c r="E22">
-        <v>0.6058005671943897</v>
+        <v>0.3676894212058129</v>
       </c>
       <c r="F22">
-        <v>16.04674771675185</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5143517342462739</v>
+        <v>0.407443643957149</v>
       </c>
       <c r="H22">
-        <v>24.39806358726591</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>7.675807983053364</v>
+        <v>12.20595502593145</v>
       </c>
       <c r="J22">
-        <v>9.721128868433548</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>12.54918631836109</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>12.54918631836109</v>
+        <v>12.20595502593145</v>
       </c>
       <c r="M22" t="s">
         <v>13</v>
@@ -1323,40 +1323,40 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>259</v>
+        <v>421</v>
       </c>
       <c r="B23">
-        <v>196</v>
+        <v>1455</v>
       </c>
       <c r="C23">
-        <v>0.5813002042588981</v>
+        <v>0.4180315879820756</v>
       </c>
       <c r="D23">
-        <v>21.38532470908359</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3264107378356735</v>
+        <v>0.692541567693465</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>10.46517477941118</v>
       </c>
       <c r="G23">
-        <v>0.3786347933771824</v>
+        <v>0.5189016595462108</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>21.50455298928546</v>
       </c>
       <c r="I23">
-        <v>12.43129362153315</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.24756854791953</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.15874823393965</v>
       </c>
       <c r="L23">
-        <v>12.43129362153315</v>
+        <v>11.15874823393965</v>
       </c>
       <c r="M23" t="s">
         <v>12</v>
@@ -1364,368 +1364,368 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>421</v>
+        <v>495</v>
       </c>
       <c r="B24">
-        <v>1455</v>
+        <v>206</v>
       </c>
       <c r="C24">
-        <v>0.4180315879820756</v>
+        <v>0.4784429996575396</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.692541567693465</v>
+        <v>0.3141206565685695</v>
       </c>
       <c r="F24">
-        <v>10.83671339030659</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5189016595462108</v>
+        <v>0.5467905435543969</v>
       </c>
       <c r="H24">
-        <v>22.76697704509776</v>
+        <v>20.0671081029077</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.50487447996769</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>11.81382217155172</v>
+        <v>10.97250494715374</v>
       </c>
       <c r="L24">
-        <v>11.81382217155172</v>
+        <v>10.97250494715374</v>
       </c>
       <c r="M24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>461</v>
+        <v>582</v>
       </c>
       <c r="B25">
-        <v>151</v>
+        <v>1443</v>
       </c>
       <c r="C25">
-        <v>0.5594113623565158</v>
+        <v>0.2867672344927896</v>
       </c>
       <c r="D25">
-        <v>5.734142010011015</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5211303509228848</v>
+        <v>0.6196306506563311</v>
       </c>
       <c r="F25">
-        <v>13.75469271894772</v>
+        <v>17.45845815822424</v>
       </c>
       <c r="G25">
-        <v>0.5206459227867506</v>
+        <v>0.3750901248792774</v>
       </c>
       <c r="H25">
-        <v>21.68488125869112</v>
+        <v>3.074072344322344</v>
       </c>
       <c r="I25">
-        <v>3.207744193765992</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>7.167987843461674</v>
+        <v>10.81779578803682</v>
       </c>
       <c r="K25">
-        <v>11.29014501345235</v>
+        <v>1.153054179519801</v>
       </c>
       <c r="L25">
-        <v>11.29014501345235</v>
+        <v>10.81779578803682</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B26">
-        <v>760</v>
+        <v>562</v>
       </c>
       <c r="C26">
-        <v>0.6037445719988814</v>
+        <v>0.522308690513267</v>
       </c>
       <c r="D26">
-        <v>12.94365683991108</v>
+        <v>7.216864895982189</v>
       </c>
       <c r="E26">
-        <v>0.483019247018292</v>
+        <v>0.7044755082352256</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>15.34517032970695</v>
       </c>
       <c r="G26">
-        <v>0.7194090259239244</v>
+        <v>0.3701331985442747</v>
       </c>
       <c r="H26">
-        <v>15.56979577499881</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>7.814662558912509</v>
+        <v>3.769431253431622</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>10.81029666697641</v>
       </c>
       <c r="K26">
-        <v>11.20105161232633</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>11.20105161232633</v>
+        <v>10.81029666697641</v>
       </c>
       <c r="M26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>582</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>1443</v>
+        <v>1289</v>
       </c>
       <c r="C27">
-        <v>0.2867672344927896</v>
+        <v>0.5122685258570748</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>13.46472709871721</v>
       </c>
       <c r="E27">
-        <v>0.6196306506563311</v>
+        <v>0.6058005671943897</v>
       </c>
       <c r="F27">
-        <v>17.27654901558117</v>
+        <v>16.21315535209136</v>
       </c>
       <c r="G27">
-        <v>0.3750901248792774</v>
+        <v>0.5143517342462739</v>
       </c>
       <c r="H27">
-        <v>7.413749421768707</v>
+        <v>20.90590788345292</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>6.897555901927674</v>
       </c>
       <c r="J27">
-        <v>10.70507930762056</v>
+        <v>9.8219387083077</v>
       </c>
       <c r="K27">
-        <v>2.780824196434895</v>
+        <v>10.75298997584686</v>
       </c>
       <c r="L27">
-        <v>10.70507930762056</v>
+        <v>10.75298997584686</v>
       </c>
       <c r="M27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>534</v>
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>1569</v>
+        <v>150</v>
       </c>
       <c r="C28">
-        <v>0.5742430094413524</v>
+        <v>0.6100619465135034</v>
       </c>
       <c r="D28">
-        <v>13.45462687866449</v>
+        <v>17.04896501345912</v>
       </c>
       <c r="E28">
-        <v>0.6002893148156792</v>
+        <v>0.4078671958697458</v>
       </c>
       <c r="F28">
-        <v>17.62214093204765</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0.5133658292027068</v>
+        <v>0.2901788369973248</v>
       </c>
       <c r="H28">
-        <v>9.740941661661751</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>7.726225429714806</v>
+        <v>10.40092478215149</v>
       </c>
       <c r="J28">
-        <v>10.57838290568422</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>5.000666593354177</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>10.57838290568422</v>
+        <v>10.40092478215149</v>
       </c>
       <c r="M28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>573</v>
+        <v>343</v>
       </c>
       <c r="B29">
-        <v>1210</v>
+        <v>153</v>
       </c>
       <c r="C29">
-        <v>0.5138072551167663</v>
+        <v>0.7570339748292867</v>
       </c>
       <c r="D29">
-        <v>6.125004662965755</v>
+        <v>13.69327171036064</v>
       </c>
       <c r="E29">
-        <v>0.6038508477894511</v>
+        <v>0.6755736277198937</v>
       </c>
       <c r="F29">
-        <v>17.33374585674946</v>
+        <v>10.99682275204338</v>
       </c>
       <c r="G29">
-        <v>0.3823992196027737</v>
+        <v>0.4680525733500686</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3.074072344322344</v>
       </c>
       <c r="I29">
-        <v>3.147071833455829</v>
+        <v>10.36627191131174</v>
       </c>
       <c r="J29">
-        <v>10.46699713096505</v>
+        <v>7.429163439990612</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.438827471424351</v>
       </c>
       <c r="L29">
-        <v>10.46699713096505</v>
+        <v>10.36627191131174</v>
       </c>
       <c r="M29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>523</v>
+        <v>415</v>
       </c>
       <c r="B30">
-        <v>697</v>
+        <v>940</v>
       </c>
       <c r="C30">
-        <v>0.7837263219437218</v>
+        <v>0.6715749964228165</v>
       </c>
       <c r="D30">
-        <v>13.24953784171273</v>
+        <v>15.1952483582968</v>
       </c>
       <c r="E30">
-        <v>0.6689322328425442</v>
+        <v>0.3536757666335082</v>
       </c>
       <c r="F30">
-        <v>11.83955952174809</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0.3507515005022601</v>
+        <v>0.2370388269398985</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4.113310714285714</v>
       </c>
       <c r="I30">
-        <v>10.38401156013968</v>
+        <v>10.20474886186698</v>
       </c>
       <c r="J30">
-        <v>7.919862986755154</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>0.9750143465536018</v>
       </c>
       <c r="L30">
-        <v>10.38401156013968</v>
+        <v>10.20474886186698</v>
       </c>
       <c r="M30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>415</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>940</v>
+        <v>1098</v>
       </c>
       <c r="C31">
-        <v>0.6715749964228165</v>
+        <v>0.5186622549534647</v>
       </c>
       <c r="D31">
-        <v>15.23080389585716</v>
+        <v>19.6705881078429</v>
       </c>
       <c r="E31">
-        <v>0.3536757666335082</v>
+        <v>0.3028775030640816</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.2370388269398985</v>
+        <v>0.2480346388793884</v>
       </c>
       <c r="H31">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>10.22862707187689</v>
+        <v>10.20239158427461</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
       <c r="K31">
-        <v>0.01122962036325113</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>10.22862707187689</v>
+        <v>10.20239158427461</v>
       </c>
       <c r="M31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>717</v>
       </c>
       <c r="C32">
-        <v>0.5331248586201653</v>
+        <v>0.4850049276676632</v>
       </c>
       <c r="D32">
-        <v>7.884493815841898</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0.5544921548691162</v>
+        <v>0.5509365125845868</v>
       </c>
       <c r="F32">
-        <v>18.3202535509705</v>
+        <v>18.44380865071437</v>
       </c>
       <c r="G32">
-        <v>0.457312460033309</v>
+        <v>0.3290628146907655</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4.20341965086228</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>10.15843686922621</v>
+        <v>10.16136761680201</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>10.15843686922621</v>
+        <v>10.16136761680201</v>
       </c>
       <c r="M32" t="s">
         <v>14</v>
@@ -1733,40 +1733,40 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>293</v>
+        <v>624</v>
       </c>
       <c r="B33">
-        <v>1597</v>
+        <v>1119</v>
       </c>
       <c r="C33">
-        <v>0.5088847085527494</v>
+        <v>0.6852984334168437</v>
       </c>
       <c r="D33">
-        <v>8.330670093279506</v>
+        <v>9.615501793584286</v>
       </c>
       <c r="E33">
-        <v>0.6436882994891108</v>
+        <v>0.7021343980078673</v>
       </c>
       <c r="F33">
-        <v>15.69146806245575</v>
+        <v>14.40814039277832</v>
       </c>
       <c r="G33">
-        <v>0.4357516452988674</v>
+        <v>0.3224263535639482</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>4.239350622467647</v>
+        <v>6.589488315660162</v>
       </c>
       <c r="J33">
-        <v>10.10041439360983</v>
+        <v>10.11645098109624</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>10.10041439360983</v>
+        <v>10.11645098109624</v>
       </c>
       <c r="M33" t="s">
         <v>14</v>
@@ -1774,81 +1774,81 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>66</v>
+        <v>293</v>
       </c>
       <c r="B34">
-        <v>150</v>
+        <v>1597</v>
       </c>
       <c r="C34">
-        <v>0.6100619465135034</v>
+        <v>0.5088847085527494</v>
       </c>
       <c r="D34">
-        <v>16.37155666294033</v>
+        <v>7.749732180594362</v>
       </c>
       <c r="E34">
-        <v>0.4078671958697458</v>
+        <v>0.6436882994891108</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>15.48824948951463</v>
       </c>
       <c r="G34">
-        <v>0.2901788369973248</v>
+        <v>0.4357516452988674</v>
       </c>
       <c r="H34">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>9.987663725249494</v>
+        <v>3.943720202083625</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>9.96960497596876</v>
       </c>
       <c r="K34">
-        <v>0.01374710725241612</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>9.987663725249494</v>
+        <v>9.96960497596876</v>
       </c>
       <c r="M34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="B35">
-        <v>717</v>
+        <v>94</v>
       </c>
       <c r="C35">
-        <v>0.4850049276676632</v>
+        <v>0.5331248586201653</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7.779141951587158</v>
       </c>
       <c r="E35">
-        <v>0.5509365125845868</v>
+        <v>0.5544921548691162</v>
       </c>
       <c r="F35">
-        <v>17.94904832318359</v>
+        <v>17.93350939000688</v>
       </c>
       <c r="G35">
-        <v>0.3290628146907655</v>
+        <v>0.457312460033309</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4.147253953126101</v>
       </c>
       <c r="J35">
-        <v>9.888786087386991</v>
+        <v>9.943990266030443</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>9.888786087386991</v>
+        <v>9.943990266030443</v>
       </c>
       <c r="M35" t="s">
         <v>14</v>
@@ -1856,81 +1856,81 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>495</v>
+        <v>254</v>
       </c>
       <c r="B36">
-        <v>206</v>
+        <v>394</v>
       </c>
       <c r="C36">
-        <v>0.4784429996575396</v>
+        <v>0.6352886397261445</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>10.44413689712628</v>
       </c>
       <c r="E36">
-        <v>0.3141206565685695</v>
+        <v>0.6652490514912959</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>14.88369324880098</v>
       </c>
       <c r="G36">
-        <v>0.5467905435543969</v>
+        <v>0.2942746630705526</v>
       </c>
       <c r="H36">
-        <v>17.96853260445904</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>6.635041522488989</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>9.901362816452256</v>
       </c>
       <c r="K36">
-        <v>9.825023709667061</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>9.825023709667061</v>
+        <v>9.901362816452256</v>
       </c>
       <c r="M36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>390</v>
+        <v>534</v>
       </c>
       <c r="B37">
-        <v>1474</v>
+        <v>1569</v>
       </c>
       <c r="C37">
-        <v>0.4987764482952917</v>
+        <v>0.5742430094413524</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>12.2962554174844</v>
       </c>
       <c r="E37">
-        <v>0.6375221109457605</v>
+        <v>0.6002893148156792</v>
       </c>
       <c r="F37">
-        <v>15.40498518456684</v>
+        <v>16.31864124538627</v>
       </c>
       <c r="G37">
-        <v>0.4353956824087863</v>
+        <v>0.5133658292027068</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>8.294878924762584</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>7.061038715795775</v>
       </c>
       <c r="J37">
-        <v>9.821018673953217</v>
+        <v>9.795905971915806</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>4.258307397346801</v>
       </c>
       <c r="L37">
-        <v>9.821018673953217</v>
+        <v>9.795905971915806</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -1938,40 +1938,40 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>467</v>
+        <v>573</v>
       </c>
       <c r="B38">
-        <v>562</v>
+        <v>1210</v>
       </c>
       <c r="C38">
-        <v>0.522308690513267</v>
+        <v>0.5138072551167663</v>
       </c>
       <c r="D38">
-        <v>7.773239462993526</v>
+        <v>4.942501760791533</v>
       </c>
       <c r="E38">
-        <v>0.7044755082352256</v>
+        <v>0.6038508477894511</v>
       </c>
       <c r="F38">
-        <v>13.90537227790067</v>
+        <v>16.14934418314412</v>
       </c>
       <c r="G38">
-        <v>0.3701331985442747</v>
+        <v>0.3823992196027737</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>4.060030524962199</v>
+        <v>2.539493263122082</v>
       </c>
       <c r="J38">
-        <v>9.795994202674091</v>
+        <v>9.751795176235216</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
-        <v>9.795994202674091</v>
+        <v>9.751795176235216</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
@@ -1979,66 +1979,66 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>254</v>
+        <v>587</v>
       </c>
       <c r="B39">
-        <v>394</v>
+        <v>532</v>
       </c>
       <c r="C39">
-        <v>0.6352886397261445</v>
+        <v>0.4806299947818172</v>
       </c>
       <c r="D39">
-        <v>9.486167956247469</v>
+        <v>7.134748756095096</v>
       </c>
       <c r="E39">
-        <v>0.6652490514912959</v>
+        <v>0.4410616337675692</v>
       </c>
       <c r="F39">
-        <v>14.60948949438365</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.2942746630705526</v>
+        <v>0.6280733547140424</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>15.32840416121473</v>
       </c>
       <c r="I39">
-        <v>6.026454737138194</v>
+        <v>3.429174257411563</v>
       </c>
       <c r="J39">
-        <v>9.718949028910775</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>9.627362223946822</v>
       </c>
       <c r="L39">
-        <v>9.718949028910775</v>
+        <v>9.627362223946822</v>
       </c>
       <c r="M39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="B40">
-        <v>1530</v>
+        <v>710</v>
       </c>
       <c r="C40">
-        <v>0.4201962457870957</v>
+        <v>0.4906526840436685</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0.5491999721798413</v>
+        <v>0.5814735768765497</v>
       </c>
       <c r="F40">
-        <v>17.65646096020926</v>
+        <v>16.48606702280738</v>
       </c>
       <c r="G40">
-        <v>0.4256828309938276</v>
+        <v>0.3737372447852474</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>9.696927868141378</v>
+        <v>9.586212360378337</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
       <c r="L40">
-        <v>9.696927868141378</v>
+        <v>9.586212360378337</v>
       </c>
       <c r="M40" t="s">
         <v>14</v>
@@ -2061,43 +2061,43 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>587</v>
+        <v>533</v>
       </c>
       <c r="B41">
-        <v>532</v>
+        <v>1082</v>
       </c>
       <c r="C41">
-        <v>0.4806299947818172</v>
+        <v>0.5769987615356763</v>
       </c>
       <c r="D41">
-        <v>5.795931323502887</v>
+        <v>6.424169100244895</v>
       </c>
       <c r="E41">
-        <v>0.4410616337675692</v>
+        <v>0.5884202455574007</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>16.04164729665148</v>
       </c>
       <c r="G41">
-        <v>0.6280733547140424</v>
+        <v>0.3564064272865123</v>
       </c>
       <c r="H41">
-        <v>15.31009028122729</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>2.785698441770964</v>
+        <v>3.706737614737064</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>9.439230041440876</v>
       </c>
       <c r="K41">
-        <v>9.615859763905279</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>9.615859763905279</v>
+        <v>9.439230041440876</v>
       </c>
       <c r="M41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2111,13 +2111,13 @@
         <v>0.5404189320682611</v>
       </c>
       <c r="D42">
-        <v>7.407747431362012</v>
+        <v>5.472892394123928</v>
       </c>
       <c r="E42">
         <v>0.5702432206754541</v>
       </c>
       <c r="F42">
-        <v>16.48855311783303</v>
+        <v>16.42715001193134</v>
       </c>
       <c r="G42">
         <v>0.3265485048204701</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>4.003286955888063</v>
+        <v>2.957654662956962</v>
       </c>
       <c r="J42">
-        <v>9.402485634191406</v>
+        <v>9.36747092932255</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>9.402485634191406</v>
+        <v>9.36747092932255</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -2143,195 +2143,195 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="B43">
-        <v>496</v>
+        <v>786</v>
       </c>
       <c r="C43">
-        <v>0.546195855394129</v>
+        <v>0.6115569288430051</v>
       </c>
       <c r="D43">
-        <v>17.04654670041764</v>
+        <v>15.12635239965178</v>
       </c>
       <c r="E43">
-        <v>0.6088857544226208</v>
+        <v>0.3967664906524676</v>
       </c>
       <c r="F43">
-        <v>8.1080178060694</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.3806261189339467</v>
+        <v>0.4724176488264998</v>
       </c>
       <c r="H43">
-        <v>7.413749421768707</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>9.310753156550579</v>
+        <v>9.250625618128064</v>
       </c>
       <c r="J43">
-        <v>4.936856538720609</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>2.821866669156615</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>9.310753156550579</v>
+        <v>9.250625618128064</v>
       </c>
       <c r="M43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="B44">
-        <v>153</v>
+        <v>1474</v>
       </c>
       <c r="C44">
-        <v>0.7570339748292867</v>
+        <v>0.4987764482952917</v>
       </c>
       <c r="D44">
-        <v>12.27002787449245</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0.6755736277198937</v>
+        <v>0.6375221109457605</v>
       </c>
       <c r="F44">
-        <v>10.9039399950015</v>
+        <v>14.33120033754914</v>
       </c>
       <c r="G44">
-        <v>0.4680525733500686</v>
+        <v>0.4353956824087863</v>
       </c>
       <c r="H44">
-        <v>7.413749421768707</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>9.288827973093165</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>7.366414298863202</v>
+        <v>9.136457091580922</v>
       </c>
       <c r="K44">
-        <v>3.470024495031427</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>9.288827973093165</v>
+        <v>9.136457091580922</v>
       </c>
       <c r="M44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>574</v>
+        <v>246</v>
       </c>
       <c r="B45">
-        <v>1278</v>
+        <v>1594</v>
       </c>
       <c r="C45">
-        <v>0.4308654191219198</v>
+        <v>0.4179824435385756</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.3715318232666304</v>
+        <v>0.52550609762393</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>17.38490406016982</v>
       </c>
       <c r="G45">
-        <v>0.6397422224929353</v>
+        <v>0.4417220243012234</v>
       </c>
       <c r="H45">
-        <v>14.42084084484959</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>9.135873090226259</v>
       </c>
       <c r="K45">
-        <v>9.225620772300976</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>9.225620772300976</v>
+        <v>9.135873090226259</v>
       </c>
       <c r="M45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>93</v>
+        <v>523</v>
       </c>
       <c r="B46">
-        <v>342</v>
+        <v>697</v>
       </c>
       <c r="C46">
-        <v>0.3865535514521906</v>
+        <v>0.7837263219437218</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>11.44828974583357</v>
       </c>
       <c r="E46">
-        <v>0.5930881742306499</v>
+        <v>0.6689322328425442</v>
       </c>
       <c r="F46">
-        <v>15.49900779634115</v>
+        <v>12.64410845893865</v>
       </c>
       <c r="G46">
-        <v>0.2446760913007039</v>
+        <v>0.3507515005022601</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>8.97232601504817</v>
       </c>
       <c r="J46">
-        <v>9.192278236318581</v>
+        <v>8.458051703741132</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>9.192278236318581</v>
+        <v>8.97232601504817</v>
       </c>
       <c r="M46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>440</v>
+        <v>187</v>
       </c>
       <c r="B47">
-        <v>1101</v>
+        <v>733</v>
       </c>
       <c r="C47">
-        <v>0.5117236746881133</v>
+        <v>0.5010658328685401</v>
       </c>
       <c r="D47">
-        <v>17.78872713554522</v>
+        <v>17.76576768683665</v>
       </c>
       <c r="E47">
-        <v>0.4142050968228143</v>
+        <v>0.3729539259085029</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.3902052786881108</v>
+        <v>0.391427254441205</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>9.102912817825356</v>
+        <v>8.901819182553803</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2340,48 +2340,48 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>9.102912817825356</v>
+        <v>8.901819182553803</v>
       </c>
       <c r="M47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>533</v>
+        <v>286</v>
       </c>
       <c r="B48">
-        <v>1082</v>
+        <v>1241</v>
       </c>
       <c r="C48">
-        <v>0.5769987615356763</v>
+        <v>0.3632599718244692</v>
       </c>
       <c r="D48">
-        <v>6.580010397052316</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0.5884202455574007</v>
+        <v>0.570415157434824</v>
       </c>
       <c r="F48">
-        <v>15.34959268400682</v>
+        <v>15.57485327137994</v>
       </c>
       <c r="G48">
-        <v>0.3564064272865123</v>
+        <v>0.5365196731252174</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>4.528909569171859</v>
       </c>
       <c r="I48">
-        <v>3.79665784999106</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>9.032011096329374</v>
+        <v>8.884132380818471</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>2.429849081665755</v>
       </c>
       <c r="L48">
-        <v>9.032011096329374</v>
+        <v>8.884132380818471</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
@@ -2389,81 +2389,81 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="B49">
-        <v>786</v>
+        <v>731</v>
       </c>
       <c r="C49">
-        <v>0.6115569288430051</v>
+        <v>0.4395175259837192</v>
       </c>
       <c r="D49">
-        <v>14.73918264610565</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.3967664906524676</v>
+        <v>0.6103479958319621</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>14.44983502553499</v>
       </c>
       <c r="G49">
-        <v>0.4724176488264998</v>
+        <v>0.370490952000974</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>9.013849272708487</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>8.819427847937769</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>9.013849272708487</v>
+        <v>8.819427847937769</v>
       </c>
       <c r="M49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>607</v>
+        <v>462</v>
       </c>
       <c r="B50">
-        <v>1491</v>
+        <v>583</v>
       </c>
       <c r="C50">
-        <v>0.4113107228714927</v>
+        <v>0.6858952836558564</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>8.573090289704959</v>
       </c>
       <c r="E50">
-        <v>0.5699465024442606</v>
+        <v>0.6512786180716086</v>
       </c>
       <c r="F50">
-        <v>15.79953237217847</v>
+        <v>13.50679637646755</v>
       </c>
       <c r="G50">
-        <v>0.5101324178011812</v>
+        <v>0.3386678881522054</v>
       </c>
       <c r="H50">
-        <v>12.08505151483087</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>5.880242196064451</v>
       </c>
       <c r="J50">
-        <v>9.00488821577799</v>
+        <v>8.796687678640396</v>
       </c>
       <c r="K50">
-        <v>6.1649765485125</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>9.00488821577799</v>
+        <v>8.796687678640396</v>
       </c>
       <c r="M50" t="s">
         <v>14</v>
@@ -2471,40 +2471,40 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>624</v>
+        <v>93</v>
       </c>
       <c r="B51">
-        <v>1119</v>
+        <v>342</v>
       </c>
       <c r="C51">
-        <v>0.6852984334168437</v>
+        <v>0.3865535514521906</v>
       </c>
       <c r="D51">
-        <v>10.7708658924406</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0.7021343980078673</v>
+        <v>0.5930881742306499</v>
       </c>
       <c r="F51">
-        <v>12.81267844528488</v>
+        <v>14.78219264171607</v>
       </c>
       <c r="G51">
-        <v>0.3224263535639482</v>
+        <v>0.2446760913007039</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>7.381257522632458</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>8.996222267048475</v>
+        <v>8.767143645001131</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>8.996222267048475</v>
+        <v>8.767143645001131</v>
       </c>
       <c r="M51" t="s">
         <v>14</v>
@@ -2512,204 +2512,204 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="B52">
-        <v>1594</v>
+        <v>951</v>
       </c>
       <c r="C52">
-        <v>0.4179824435385756</v>
+        <v>0.5208900428575337</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>9.863809584772524</v>
       </c>
       <c r="E52">
-        <v>0.52550609762393</v>
+        <v>0.4644337123691472</v>
       </c>
       <c r="F52">
-        <v>17.07045356351864</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.4417220243012234</v>
+        <v>0.6433989145082902</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>13.61236788522985</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>5.137960197350711</v>
       </c>
       <c r="J52">
-        <v>8.970627436835191</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>8.758182721244395</v>
       </c>
       <c r="L52">
-        <v>8.970627436835191</v>
+        <v>8.758182721244395</v>
       </c>
       <c r="M52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="B53">
-        <v>1228</v>
+        <v>41</v>
       </c>
       <c r="C53">
-        <v>0.5070019635013195</v>
+        <v>0.4704119979196592</v>
       </c>
       <c r="D53">
-        <v>17.45619943630191</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0.3973245346548478</v>
+        <v>0.7209964399024728</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>12.12405087752526</v>
       </c>
       <c r="G53">
-        <v>0.2916839760954933</v>
+        <v>0.3472447447050596</v>
       </c>
       <c r="H53">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>8.850327389475696</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>8.741397519892162</v>
       </c>
       <c r="K53">
-        <v>0.01381841261991443</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>8.850327389475696</v>
+        <v>8.741397519892162</v>
       </c>
       <c r="M53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="B54">
-        <v>733</v>
+        <v>1314</v>
       </c>
       <c r="C54">
-        <v>0.5010658328685401</v>
+        <v>0.4942456864133663</v>
       </c>
       <c r="D54">
-        <v>17.65989531247158</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0.3729539259085029</v>
+        <v>0.5450164032245076</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>15.9964179145548</v>
       </c>
       <c r="G54">
-        <v>0.391427254441205</v>
+        <v>0.4324053165752692</v>
       </c>
       <c r="H54">
-        <v>0.001428571428571429</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>8.848770153114799</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>8.718310156266737</v>
       </c>
       <c r="K54">
-        <v>0.0005591817920588645</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>8.848770153114799</v>
+        <v>8.718310156266737</v>
       </c>
       <c r="M54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="B55">
-        <v>41</v>
+        <v>1101</v>
       </c>
       <c r="C55">
-        <v>0.4704119979196592</v>
+        <v>0.5117236746881133</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>17.00214662306703</v>
       </c>
       <c r="E55">
-        <v>0.7209964399024728</v>
+        <v>0.4142050968228143</v>
       </c>
       <c r="F55">
-        <v>12.25484480254398</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.3472447447050596</v>
+        <v>0.3902052786881108</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>8.700400947541958</v>
       </c>
       <c r="J55">
-        <v>8.83569947419153</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>0</v>
       </c>
       <c r="L55">
-        <v>8.83569947419153</v>
+        <v>8.700400947541958</v>
       </c>
       <c r="M55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>620</v>
+        <v>262</v>
       </c>
       <c r="B56">
-        <v>314</v>
+        <v>545</v>
       </c>
       <c r="C56">
-        <v>0.519609453876226</v>
+        <v>0.6273753731167961</v>
       </c>
       <c r="D56">
-        <v>4.554966808554998</v>
+        <v>7.033194570586701</v>
       </c>
       <c r="E56">
-        <v>0.5732254420942502</v>
+        <v>0.6014748820908437</v>
       </c>
       <c r="F56">
-        <v>15.38405632109953</v>
+        <v>14.44639914474414</v>
       </c>
       <c r="G56">
-        <v>0.3634996314354298</v>
+        <v>0.4693641578573374</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>2.366803815817599</v>
+        <v>4.412453067924857</v>
       </c>
       <c r="J56">
-        <v>8.818532485865122</v>
+        <v>8.689146222222247</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
       <c r="L56">
-        <v>8.818532485865122</v>
+        <v>8.689146222222247</v>
       </c>
       <c r="M56" t="s">
         <v>14</v>
@@ -2717,25 +2717,25 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B57">
-        <v>217</v>
+        <v>1530</v>
       </c>
       <c r="C57">
-        <v>0.4562467450933629</v>
+        <v>0.4201962457870957</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0.5976521481775311</v>
+        <v>0.5491999721798413</v>
       </c>
       <c r="F57">
-        <v>14.58753085782386</v>
+        <v>15.76826309042003</v>
       </c>
       <c r="G57">
-        <v>0.4832378782813381</v>
+        <v>0.4256828309938276</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2744,13 +2744,13 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>8.718269153784453</v>
+        <v>8.659929650583098</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>8.718269153784453</v>
+        <v>8.659929650583098</v>
       </c>
       <c r="M57" t="s">
         <v>14</v>
@@ -2758,81 +2758,81 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>513</v>
+        <v>599</v>
       </c>
       <c r="B58">
-        <v>1343</v>
+        <v>307</v>
       </c>
       <c r="C58">
-        <v>0.5527295734665301</v>
+        <v>0.5336797753584622</v>
       </c>
       <c r="D58">
-        <v>11.14149100187928</v>
+        <v>16.06974385041148</v>
       </c>
       <c r="E58">
-        <v>0.6437241994959599</v>
+        <v>0.4877568676024401</v>
       </c>
       <c r="F58">
-        <v>13.42505311952345</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>0.323473550990419</v>
+        <v>0.4822006444655407</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>6.158231569249916</v>
+        <v>8.576097288155628</v>
       </c>
       <c r="J58">
-        <v>8.642031572555974</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
       <c r="L58">
-        <v>8.642031572555974</v>
+        <v>8.576097288155628</v>
       </c>
       <c r="M58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="B59">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C59">
-        <v>0.5531000396809431</v>
+        <v>0.5268223211058918</v>
       </c>
       <c r="D59">
-        <v>13.57744220843233</v>
+        <v>6.256750079040454</v>
       </c>
       <c r="E59">
-        <v>0.7607008095527117</v>
+        <v>0.5590068388006367</v>
       </c>
       <c r="F59">
-        <v>11.35699774557566</v>
+        <v>15.32816243554386</v>
       </c>
       <c r="G59">
-        <v>0.4166931839943184</v>
+        <v>0.3562204244511972</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>7.509683824249634</v>
+        <v>3.296195599219564</v>
       </c>
       <c r="J59">
-        <v>8.639277379147726</v>
+        <v>8.568547627716042</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>8.639277379147726</v>
+        <v>8.568547627716042</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
@@ -2840,40 +2840,40 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>306</v>
+        <v>140</v>
       </c>
       <c r="B60">
-        <v>1493</v>
+        <v>485</v>
       </c>
       <c r="C60">
-        <v>0.5607337926512082</v>
+        <v>0.4967088414175317</v>
       </c>
       <c r="D60">
-        <v>7.977189565197283</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0.5449834722905138</v>
+        <v>0.5194107033151418</v>
       </c>
       <c r="F60">
-        <v>15.84719976648351</v>
+        <v>16.45508096324428</v>
       </c>
       <c r="G60">
-        <v>0.3764747144341156</v>
+        <v>0.3542814488485296</v>
       </c>
       <c r="H60">
         <v>0</v>
       </c>
       <c r="I60">
-        <v>4.473079759590714</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>8.636461954819602</v>
+        <v>8.546945176226314</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>8.636461954819602</v>
+        <v>8.546945176226314</v>
       </c>
       <c r="M60" t="s">
         <v>14</v>
@@ -2881,40 +2881,40 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>311</v>
+        <v>699</v>
       </c>
       <c r="C61">
-        <v>0.5268223211058918</v>
+        <v>0.4622855612867025</v>
       </c>
       <c r="D61">
-        <v>6.69856359882064</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0.5590068388006367</v>
+        <v>0.5647680271168477</v>
       </c>
       <c r="F61">
-        <v>15.33534726247959</v>
+        <v>15.05576974521022</v>
       </c>
       <c r="G61">
-        <v>0.3562204244511972</v>
+        <v>0.4271671251156677</v>
       </c>
       <c r="H61">
         <v>0</v>
       </c>
       <c r="I61">
-        <v>3.528952823206125</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>8.572563995108714</v>
+        <v>8.5030173757279</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>8.572563995108714</v>
+        <v>8.5030173757279</v>
       </c>
       <c r="M61" t="s">
         <v>14</v>
@@ -2922,40 +2922,40 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>286</v>
+        <v>437</v>
       </c>
       <c r="B62">
-        <v>1241</v>
+        <v>338</v>
       </c>
       <c r="C62">
-        <v>0.3632599718244692</v>
+        <v>0.4712099562314606</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.570415157434824</v>
+        <v>0.5415078070142848</v>
       </c>
       <c r="F62">
-        <v>15.01924922100542</v>
+        <v>15.59269894133622</v>
       </c>
       <c r="G62">
-        <v>0.5365196731252174</v>
+        <v>0.328604894127475</v>
       </c>
       <c r="H62">
-        <v>4.424531274737166</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>8.567207408952664</v>
+        <v>8.443568209156936</v>
       </c>
       <c r="K62">
-        <v>2.373848073254286</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>8.567207408952664</v>
+        <v>8.443568209156936</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
@@ -2963,122 +2963,122 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>540</v>
+        <v>324</v>
       </c>
       <c r="B63">
-        <v>386</v>
+        <v>674</v>
       </c>
       <c r="C63">
-        <v>0.571084704732155</v>
+        <v>0.5490601323579516</v>
       </c>
       <c r="D63">
-        <v>14.9323828856222</v>
+        <v>9.15122529949052</v>
       </c>
       <c r="E63">
-        <v>0.251034355563413</v>
+        <v>0.7249434396453839</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>11.61892572052889</v>
       </c>
       <c r="G63">
-        <v>0.399174095518365</v>
+        <v>0.4130465957146624</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>8.527655471183039</v>
+        <v>5.0245729741757</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>8.423063976824434</v>
       </c>
       <c r="K63">
         <v>0</v>
       </c>
       <c r="L63">
-        <v>8.527655471183039</v>
+        <v>8.423063976824434</v>
       </c>
       <c r="M63" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>79</v>
+        <v>607</v>
       </c>
       <c r="B64">
-        <v>1393</v>
+        <v>1491</v>
       </c>
       <c r="C64">
-        <v>0.6514418223853168</v>
+        <v>0.4113107228714927</v>
       </c>
       <c r="D64">
-        <v>13.07115935115975</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0.4224989304803206</v>
+        <v>0.5699465024442606</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>14.74164313403275</v>
       </c>
       <c r="G64">
-        <v>0.2618920821067337</v>
+        <v>0.5101324178011812</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>10.89411774976274</v>
       </c>
       <c r="I64">
-        <v>8.515099868408383</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>8.401947944523414</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>5.557442627497231</v>
       </c>
       <c r="L64">
-        <v>8.515099868408383</v>
+        <v>8.401947944523414</v>
       </c>
       <c r="M64" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>1</v>
+        <v>552</v>
       </c>
       <c r="B65">
-        <v>699</v>
+        <v>183</v>
       </c>
       <c r="C65">
-        <v>0.4622855612867025</v>
+        <v>0.552584981404459</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>7.469465697862283</v>
       </c>
       <c r="E65">
-        <v>0.5647680271168477</v>
+        <v>0.5178766021305975</v>
       </c>
       <c r="F65">
-        <v>15.07629767039741</v>
+        <v>16.09881311704147</v>
       </c>
       <c r="G65">
-        <v>0.4271671251156677</v>
+        <v>0.3643381781690782</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>4.127514563754474</v>
       </c>
       <c r="J65">
-        <v>8.514610891536673</v>
+        <v>8.33719863538893</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>8.514610891536673</v>
+        <v>8.33719863538893</v>
       </c>
       <c r="M65" t="s">
         <v>14</v>
@@ -3086,25 +3086,25 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>510</v>
       </c>
       <c r="B66">
-        <v>834</v>
+        <v>440</v>
       </c>
       <c r="C66">
-        <v>0.4638927466473121</v>
+        <v>0.4438788327013516</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.6218445962785817</v>
+        <v>0.5528110147941323</v>
       </c>
       <c r="F66">
-        <v>13.65778723493674</v>
+        <v>15.06161952747124</v>
       </c>
       <c r="G66">
-        <v>0.3428037182617901</v>
+        <v>0.320068752345875</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>8.493021189168003</v>
+        <v>8.326229175424496</v>
       </c>
       <c r="K66">
         <v>0</v>
       </c>
       <c r="L66">
-        <v>8.493021189168003</v>
+        <v>8.326229175424496</v>
       </c>
       <c r="M66" t="s">
         <v>14</v>
@@ -3127,40 +3127,40 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>437</v>
+        <v>258</v>
       </c>
       <c r="B67">
-        <v>338</v>
+        <v>756</v>
       </c>
       <c r="C67">
-        <v>0.4712099562314606</v>
+        <v>0.6879840245357349</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>11.03820161318909</v>
       </c>
       <c r="E67">
-        <v>0.5415078070142848</v>
+        <v>0.6145327594439014</v>
       </c>
       <c r="F67">
-        <v>15.66363682992544</v>
+        <v>13.53954621038363</v>
       </c>
       <c r="G67">
-        <v>0.328604894127475</v>
+        <v>0.2771432880090537</v>
       </c>
       <c r="H67">
         <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>7.594106369478672</v>
       </c>
       <c r="J67">
-        <v>8.48198162964111</v>
+        <v>8.320494694285269</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67">
-        <v>8.48198162964111</v>
+        <v>8.320494694285269</v>
       </c>
       <c r="M67" t="s">
         <v>14</v>
@@ -3168,353 +3168,353 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B68">
-        <v>30</v>
+        <v>948</v>
       </c>
       <c r="C68">
-        <v>0.5848987854479093</v>
+        <v>0.2616438246179338</v>
       </c>
       <c r="D68">
-        <v>14.42487635813898</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0.3068966420807853</v>
+        <v>0.5036327374863467</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>16.39278972416851</v>
       </c>
       <c r="G68">
-        <v>0.3879456870536206</v>
+        <v>0.1777939613145923</v>
       </c>
       <c r="H68">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>8.43709266211175</v>
+        <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>8.25594556382104</v>
       </c>
       <c r="K68">
-        <v>0.01837877297746406</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>8.43709266211175</v>
+        <v>8.25594556382104</v>
       </c>
       <c r="M68" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>7</v>
+        <v>468</v>
       </c>
       <c r="B69">
-        <v>1134</v>
+        <v>1228</v>
       </c>
       <c r="C69">
-        <v>0.564667602128565</v>
+        <v>0.5070019635013195</v>
       </c>
       <c r="D69">
-        <v>12.61864936994145</v>
+        <v>16.18593861888443</v>
       </c>
       <c r="E69">
-        <v>0.6623820548709348</v>
+        <v>0.3973245346548478</v>
       </c>
       <c r="F69">
-        <v>12.71007720064133</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.3098791701827857</v>
+        <v>0.2916839760954933</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69">
-        <v>7.125342481825967</v>
+        <v>8.206302660886241</v>
       </c>
       <c r="J69">
-        <v>8.418927053729023</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69">
-        <v>8.418927053729023</v>
+        <v>8.206302660886241</v>
       </c>
       <c r="M69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>599</v>
+        <v>306</v>
       </c>
       <c r="B70">
-        <v>307</v>
+        <v>1493</v>
       </c>
       <c r="C70">
-        <v>0.5336797753584622</v>
+        <v>0.5607337926512082</v>
       </c>
       <c r="D70">
-        <v>15.67642082204254</v>
+        <v>8.981075536630447</v>
       </c>
       <c r="E70">
-        <v>0.4877568676024401</v>
+        <v>0.5449834722905138</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>15.02533124396678</v>
       </c>
       <c r="G70">
-        <v>0.4822006444655407</v>
+        <v>0.3764747144341156</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>8.366188742732382</v>
+        <v>5.035992547741775</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>8.18855719365216</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
       <c r="L70">
-        <v>8.366188742732382</v>
+        <v>8.18855719365216</v>
       </c>
       <c r="M70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B71">
-        <v>183</v>
+        <v>530</v>
       </c>
       <c r="C71">
-        <v>0.552584981404459</v>
+        <v>0.535042489209328</v>
       </c>
       <c r="D71">
-        <v>6.772917773699509</v>
+        <v>15.30234323983488</v>
       </c>
       <c r="E71">
-        <v>0.5178766021305975</v>
+        <v>0.5079943874196291</v>
       </c>
       <c r="F71">
-        <v>16.13881422821576</v>
+        <v>10.74794902560267</v>
       </c>
       <c r="G71">
-        <v>0.3643381781690782</v>
+        <v>0.4910025915593341</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71">
-        <v>3.742612642033673</v>
+        <v>8.187403817776786</v>
       </c>
       <c r="J71">
-        <v>8.357914274925319</v>
+        <v>5.459897781278428</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
       <c r="L71">
-        <v>8.357914274925319</v>
+        <v>8.187403817776786</v>
       </c>
       <c r="M71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>528</v>
+        <v>95</v>
       </c>
       <c r="B72">
-        <v>1073</v>
+        <v>1599</v>
       </c>
       <c r="C72">
-        <v>0.52853602445216</v>
+        <v>0.4830357429801694</v>
       </c>
       <c r="D72">
-        <v>15.76347725305303</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0.2994614975815981</v>
+        <v>0.5571531775254868</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>14.56554820117849</v>
       </c>
       <c r="G72">
-        <v>0.2594765403054684</v>
+        <v>0.4006718337694719</v>
       </c>
       <c r="H72">
-        <v>0.04737460317460317</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>8.331565598870704</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>8.115241462687234</v>
       </c>
       <c r="K72">
-        <v>0.01229259813009049</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>8.331565598870704</v>
+        <v>8.115241462687234</v>
       </c>
       <c r="M72" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>503</v>
+        <v>63</v>
       </c>
       <c r="B73">
-        <v>886</v>
+        <v>217</v>
       </c>
       <c r="C73">
-        <v>0.5317102219728221</v>
+        <v>0.4562467450933629</v>
       </c>
       <c r="D73">
-        <v>5.506394380903662</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0.5368657812918994</v>
+        <v>0.5976521481775311</v>
       </c>
       <c r="F73">
-        <v>9.924009975203369</v>
+        <v>13.54269763466167</v>
       </c>
       <c r="G73">
-        <v>0.6198274085341895</v>
+        <v>0.4832378782813381</v>
       </c>
       <c r="H73">
-        <v>13.4158126814094</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2.927806178540187</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>5.32786136888616</v>
+        <v>8.093822333474316</v>
       </c>
       <c r="K73">
-        <v>8.315488407698105</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>8.315488407698105</v>
+        <v>8.093822333474316</v>
       </c>
       <c r="M73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>510</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>440</v>
+        <v>1393</v>
       </c>
       <c r="C74">
-        <v>0.4438788327013516</v>
+        <v>0.6514418223853168</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>12.31207525260425</v>
       </c>
       <c r="E74">
-        <v>0.5528110147941323</v>
+        <v>0.4224989304803206</v>
       </c>
       <c r="F74">
-        <v>15.03030739290786</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.320068752345875</v>
+        <v>0.2618920821067337</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>8.020600739901672</v>
       </c>
       <c r="J74">
-        <v>8.308919482541143</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
       </c>
       <c r="L74">
-        <v>8.308919482541143</v>
+        <v>8.020600739901672</v>
       </c>
       <c r="M74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="B75">
-        <v>948</v>
+        <v>862</v>
       </c>
       <c r="C75">
-        <v>0.2616438246179338</v>
+        <v>0.5249226954347532</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>15.24531603939222</v>
       </c>
       <c r="E75">
-        <v>0.5036327374863467</v>
+        <v>0.4968073012916878</v>
       </c>
       <c r="F75">
-        <v>16.48104952964402</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.1777939613145923</v>
+        <v>0.3481148995046319</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>8.002612388152441</v>
       </c>
       <c r="J75">
-        <v>8.300396091262686</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75">
-        <v>8.300396091262686</v>
+        <v>8.002612388152441</v>
       </c>
       <c r="M75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>191</v>
+        <v>568</v>
       </c>
       <c r="B76">
-        <v>710</v>
+        <v>498</v>
       </c>
       <c r="C76">
-        <v>0.4906526840436685</v>
+        <v>0.4497952288792667</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.5814735768765497</v>
+        <v>0.593931839438724</v>
       </c>
       <c r="F76">
-        <v>14.24559747443033</v>
+        <v>13.46591469394518</v>
       </c>
       <c r="G76">
-        <v>0.3737372447852474</v>
+        <v>0.3559262995115152</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -3523,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>8.283438518200546</v>
+        <v>7.997835483899802</v>
       </c>
       <c r="K76">
         <v>0</v>
       </c>
       <c r="L76">
-        <v>8.283438518200546</v>
+        <v>7.997835483899802</v>
       </c>
       <c r="M76" t="s">
         <v>14</v>
@@ -3537,81 +3537,81 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="B77">
-        <v>265</v>
+        <v>1200</v>
       </c>
       <c r="C77">
-        <v>0.4879344773689094</v>
+        <v>0.5809517271951066</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>13.73440879069367</v>
       </c>
       <c r="E77">
-        <v>0.5731780632047311</v>
+        <v>0.5456878348810217</v>
       </c>
       <c r="F77">
-        <v>14.38414691726924</v>
+        <v>13.84083113435735</v>
       </c>
       <c r="G77">
-        <v>0.3342476360829208</v>
+        <v>0.4720810462590225</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>7.979028508957143</v>
       </c>
       <c r="J77">
-        <v>8.244677470892686</v>
+        <v>7.552773174661297</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77">
-        <v>8.244677470892686</v>
+        <v>7.979028508957143</v>
       </c>
       <c r="M77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>585</v>
+        <v>7</v>
       </c>
       <c r="B78">
-        <v>731</v>
+        <v>1134</v>
       </c>
       <c r="C78">
-        <v>0.4395175259837192</v>
+        <v>0.564667602128565</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>11.1998466018452</v>
       </c>
       <c r="E78">
-        <v>0.6103479958319621</v>
+        <v>0.6623820548709348</v>
       </c>
       <c r="F78">
-        <v>13.46924974031921</v>
+        <v>12.0146631954702</v>
       </c>
       <c r="G78">
-        <v>0.370490952000974</v>
+        <v>0.3098791701827857</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>6.324190524871686</v>
       </c>
       <c r="J78">
-        <v>8.220929584364006</v>
+        <v>7.958297295997744</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78">
-        <v>8.220929584364006</v>
+        <v>7.958297295997744</v>
       </c>
       <c r="M78" t="s">
         <v>14</v>
@@ -3619,40 +3619,40 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="B79">
-        <v>779</v>
+        <v>350</v>
       </c>
       <c r="C79">
-        <v>0.6407737398029663</v>
+        <v>0.5531000396809431</v>
       </c>
       <c r="D79">
-        <v>12.04180806220595</v>
+        <v>10.62020906777903</v>
       </c>
       <c r="E79">
-        <v>0.6227468574283116</v>
+        <v>0.7607008095527117</v>
       </c>
       <c r="F79">
-        <v>13.06388730184346</v>
+        <v>10.45728356390954</v>
       </c>
       <c r="G79">
-        <v>0.4099678750471219</v>
+        <v>0.4166931839943184</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>7.716074386009216</v>
+        <v>5.874038056808494</v>
       </c>
       <c r="J79">
-        <v>8.13549476302064</v>
+        <v>7.954864072788253</v>
       </c>
       <c r="K79">
         <v>0</v>
       </c>
       <c r="L79">
-        <v>8.13549476302064</v>
+        <v>7.954864072788253</v>
       </c>
       <c r="M79" t="s">
         <v>14</v>
@@ -3660,204 +3660,204 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="B80">
-        <v>756</v>
+        <v>1226</v>
       </c>
       <c r="C80">
-        <v>0.6879840245357349</v>
+        <v>0.6617522059226209</v>
       </c>
       <c r="D80">
-        <v>11.80799324579803</v>
+        <v>11.99853185320253</v>
       </c>
       <c r="E80">
-        <v>0.6145327594439014</v>
+        <v>0.3990053936371867</v>
       </c>
       <c r="F80">
-        <v>12.47021082779324</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0.2771432880090537</v>
+        <v>0.3680811793639683</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>8.123710714934905</v>
+        <v>7.940054921689606</v>
       </c>
       <c r="J80">
-        <v>7.663353070850998</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>0</v>
       </c>
       <c r="L80">
-        <v>8.123710714934905</v>
+        <v>7.940054921689606</v>
       </c>
       <c r="M80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B81">
-        <v>1314</v>
+        <v>196</v>
       </c>
       <c r="C81">
-        <v>0.4942456864133663</v>
+        <v>0.5813002042588981</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>13.59675203479565</v>
       </c>
       <c r="E81">
-        <v>0.5450164032245076</v>
+        <v>0.3264107378356735</v>
       </c>
       <c r="F81">
-        <v>14.79159889065417</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>0.4324053165752692</v>
+        <v>0.3786347933771824</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>7.903794735084299</v>
       </c>
       <c r="J81">
-        <v>8.061664025323953</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
-        <v>8.061664025323953</v>
+        <v>7.903794735084299</v>
       </c>
       <c r="M81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="B82">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="C82">
-        <v>0.4593142296990219</v>
+        <v>0.632287552141314</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>12.49420765595527</v>
       </c>
       <c r="E82">
-        <v>0.5561305384122933</v>
+        <v>0.6114375075316968</v>
       </c>
       <c r="F82">
-        <v>14.46330698004959</v>
+        <v>11.63030654018979</v>
       </c>
       <c r="G82">
-        <v>0.4466210298698188</v>
+        <v>0.3555274856656733</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>7.899931974729223</v>
       </c>
       <c r="J82">
-        <v>8.043486698037258</v>
+        <v>7.111205642763237</v>
       </c>
       <c r="K82">
         <v>0</v>
       </c>
       <c r="L82">
-        <v>8.043486698037258</v>
+        <v>7.899931974729223</v>
       </c>
       <c r="M82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1">
-        <v>639</v>
+        <v>423</v>
       </c>
       <c r="B83">
-        <v>456</v>
+        <v>1192</v>
       </c>
       <c r="C83">
-        <v>0.5137330727516779</v>
+        <v>0.5779507366499507</v>
       </c>
       <c r="D83">
-        <v>15.49109854377547</v>
+        <v>6.485855263606025</v>
       </c>
       <c r="E83">
-        <v>0.2745638734591421</v>
+        <v>0.541972756246057</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>14.55914518324848</v>
       </c>
       <c r="G83">
-        <v>0.2849165639054481</v>
+        <v>0.4135379089345214</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>7.958289655192815</v>
+        <v>3.748504827406062</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>7.890660043551684</v>
       </c>
       <c r="K83">
         <v>0</v>
       </c>
       <c r="L83">
-        <v>7.958289655192815</v>
+        <v>7.890660043551684</v>
       </c>
       <c r="M83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="B84">
-        <v>674</v>
+        <v>1093</v>
       </c>
       <c r="C84">
-        <v>0.5490601323579516</v>
+        <v>0.4997190124101139</v>
       </c>
       <c r="D84">
-        <v>9.78090809899674</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0.7249434396453839</v>
+        <v>0.5144458711863116</v>
       </c>
       <c r="F84">
-        <v>10.97690013099995</v>
+        <v>15.30475271258854</v>
       </c>
       <c r="G84">
-        <v>0.4130465957146624</v>
+        <v>0.4072975463129529</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>5.370306695416111</v>
+        <v>0</v>
       </c>
       <c r="J84">
-        <v>7.957631737610968</v>
+        <v>7.873466842518677</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84">
-        <v>7.957631737610968</v>
+        <v>7.873466842518677</v>
       </c>
       <c r="M84" t="s">
         <v>14</v>
@@ -3865,40 +3865,40 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>262</v>
+        <v>42</v>
       </c>
       <c r="B85">
-        <v>545</v>
+        <v>1186</v>
       </c>
       <c r="C85">
-        <v>0.6273753731167961</v>
+        <v>0.4568435281241314</v>
       </c>
       <c r="D85">
-        <v>7.860103089681671</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>0.6014748820908437</v>
+        <v>0.5151697104810082</v>
       </c>
       <c r="F85">
-        <v>13.19343790441701</v>
+        <v>15.22847006927363</v>
       </c>
       <c r="G85">
-        <v>0.4693641578573374</v>
+        <v>0.3436831231167</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85">
-        <v>4.93123510862552</v>
+        <v>0</v>
       </c>
       <c r="J85">
-        <v>7.935521507932089</v>
+        <v>7.845246516656395</v>
       </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>7.935521507932089</v>
+        <v>7.845246516656395</v>
       </c>
       <c r="M85" t="s">
         <v>14</v>
@@ -3906,25 +3906,25 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="B86">
-        <v>878</v>
+        <v>265</v>
       </c>
       <c r="C86">
-        <v>0.4442253113288858</v>
+        <v>0.4879344773689094</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>0.5754836356808165</v>
+        <v>0.5731780632047311</v>
       </c>
       <c r="F86">
-        <v>13.78848409459471</v>
+        <v>13.63367477530901</v>
       </c>
       <c r="G86">
-        <v>0.3269923577210804</v>
+        <v>0.3342476360829208</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>7.935046957284475</v>
+        <v>7.814523302074816</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86">
-        <v>7.935046957284475</v>
+        <v>7.814523302074816</v>
       </c>
       <c r="M86" t="s">
         <v>14</v>
@@ -3947,81 +3947,81 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>568</v>
+        <v>479</v>
       </c>
       <c r="B87">
-        <v>498</v>
+        <v>760</v>
       </c>
       <c r="C87">
-        <v>0.4497952288792667</v>
+        <v>0.6037445719988814</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>12.90774040398629</v>
       </c>
       <c r="E87">
-        <v>0.593931839438724</v>
+        <v>0.483019247018292</v>
       </c>
       <c r="F87">
-        <v>13.35679862615559</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>0.3559262995115152</v>
+        <v>0.7194090259239244</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>8.750704760616365</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>7.792978205677372</v>
       </c>
       <c r="J87">
-        <v>7.933027977045211</v>
+        <v>0</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>6.295335987982868</v>
       </c>
       <c r="L87">
-        <v>7.933027977045211</v>
+        <v>7.792978205677372</v>
       </c>
       <c r="M87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1">
-        <v>64</v>
+        <v>620</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="C88">
-        <v>0.4032562169796938</v>
+        <v>0.519609453876226</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>4.463508072800893</v>
       </c>
       <c r="E88">
-        <v>0.5985219991501556</v>
+        <v>0.5732254420942502</v>
       </c>
       <c r="F88">
-        <v>13.18336427714808</v>
+        <v>13.58200276312718</v>
       </c>
       <c r="G88">
-        <v>0.4188142678914387</v>
+        <v>0.3634996314354298</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>2.319280992080198</v>
       </c>
       <c r="J88">
-        <v>7.890533542683414</v>
+        <v>7.785549538418906</v>
       </c>
       <c r="K88">
         <v>0</v>
       </c>
       <c r="L88">
-        <v>7.890533542683414</v>
+        <v>7.785549538418906</v>
       </c>
       <c r="M88" t="s">
         <v>14</v>
@@ -4029,40 +4029,40 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1">
-        <v>112</v>
+        <v>420</v>
       </c>
       <c r="B89">
-        <v>933</v>
+        <v>866</v>
       </c>
       <c r="C89">
-        <v>0.4663705634129338</v>
+        <v>0.671500302538953</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>5.957256944716704</v>
       </c>
       <c r="E89">
-        <v>0.5629860243262934</v>
+        <v>0.5261238713551394</v>
       </c>
       <c r="F89">
-        <v>13.95593162458888</v>
+        <v>14.78571923323194</v>
       </c>
       <c r="G89">
-        <v>0.3667348603861122</v>
+        <v>0.2949974783190114</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>3.074072344322344</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>4.000299840679546</v>
       </c>
       <c r="J89">
-        <v>7.856994461096883</v>
+        <v>7.779119843758131</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.9068435897453033</v>
       </c>
       <c r="L89">
-        <v>7.856994461096883</v>
+        <v>7.779119843758131</v>
       </c>
       <c r="M89" t="s">
         <v>14</v>
@@ -4079,13 +4079,13 @@
         <v>0.5754211405606172</v>
       </c>
       <c r="D90">
-        <v>10.54891198442896</v>
+        <v>10.27492393236783</v>
       </c>
       <c r="E90">
         <v>0.685881058994121</v>
       </c>
       <c r="F90">
-        <v>11.45464170508494</v>
+        <v>11.33157998434054</v>
       </c>
       <c r="G90">
         <v>0.3882400067566019</v>
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>6.070066965753676</v>
+        <v>5.912408448336679</v>
       </c>
       <c r="J90">
-        <v>7.856521783081883</v>
+        <v>7.772116079736074</v>
       </c>
       <c r="K90">
         <v>0</v>
       </c>
       <c r="L90">
-        <v>7.856521783081883</v>
+        <v>7.772116079736074</v>
       </c>
       <c r="M90" t="s">
         <v>14</v>
@@ -4111,40 +4111,40 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="B91">
-        <v>1200</v>
+        <v>834</v>
       </c>
       <c r="C91">
-        <v>0.5809517271951066</v>
+        <v>0.4638927466473121</v>
       </c>
       <c r="D91">
-        <v>13.18361905633641</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>0.5456878348810217</v>
+        <v>0.6218445962785817</v>
       </c>
       <c r="F91">
-        <v>14.36330796936863</v>
+        <v>12.46852246380108</v>
       </c>
       <c r="G91">
-        <v>0.4720810462590225</v>
+        <v>0.3428037182617901</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>7.659046261460958</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>7.837882427534092</v>
+        <v>7.753483317692809</v>
       </c>
       <c r="K91">
         <v>0</v>
       </c>
       <c r="L91">
-        <v>7.837882427534092</v>
+        <v>7.753483317692809</v>
       </c>
       <c r="M91" t="s">
         <v>14</v>
@@ -4152,25 +4152,25 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>42</v>
+        <v>515</v>
       </c>
       <c r="B92">
-        <v>1186</v>
+        <v>696</v>
       </c>
       <c r="C92">
-        <v>0.4568435281241314</v>
+        <v>0.4335851421164922</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>0.5151697104810082</v>
+        <v>0.5096223902454281</v>
       </c>
       <c r="F92">
-        <v>15.1125909636716</v>
+        <v>15.14995731521076</v>
       </c>
       <c r="G92">
-        <v>0.3436831231167</v>
+        <v>0.2783855259045201</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>7.7855491113726</v>
+        <v>7.720757459093916</v>
       </c>
       <c r="K92">
         <v>0</v>
       </c>
       <c r="L92">
-        <v>7.7855491113726</v>
+        <v>7.720757459093916</v>
       </c>
       <c r="M92" t="s">
         <v>14</v>
@@ -4193,25 +4193,25 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>327</v>
+        <v>553</v>
       </c>
       <c r="B93">
-        <v>1240</v>
+        <v>1349</v>
       </c>
       <c r="C93">
-        <v>0.4699429329347263</v>
+        <v>0.4284416900957147</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>0.6426830473672482</v>
+        <v>0.5701685754690983</v>
       </c>
       <c r="F93">
-        <v>12.10877973630419</v>
+        <v>13.4906129278152</v>
       </c>
       <c r="G93">
-        <v>0.3154253940471853</v>
+        <v>0.4800007036735474</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4220,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>7.782107460826761</v>
+        <v>7.691923555257393</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
       <c r="L93">
-        <v>7.782107460826761</v>
+        <v>7.691923555257393</v>
       </c>
       <c r="M93" t="s">
         <v>14</v>
@@ -4234,204 +4234,204 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="B94">
-        <v>1599</v>
+        <v>779</v>
       </c>
       <c r="C94">
-        <v>0.4830357429801694</v>
+        <v>0.6407737398029663</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>11.98973020952662</v>
       </c>
       <c r="E94">
-        <v>0.5571531775254868</v>
+        <v>0.6227468574283116</v>
       </c>
       <c r="F94">
-        <v>13.95985172130796</v>
+        <v>12.03897768010643</v>
       </c>
       <c r="G94">
-        <v>0.4006718337694719</v>
+        <v>0.4099678750471219</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>7.682704265586975</v>
       </c>
       <c r="J94">
-        <v>7.777775744311366</v>
+        <v>7.497235516935865</v>
       </c>
       <c r="K94">
         <v>0</v>
       </c>
       <c r="L94">
-        <v>7.777775744311366</v>
+        <v>7.682704265586975</v>
       </c>
       <c r="M94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B95">
-        <v>530</v>
+        <v>386</v>
       </c>
       <c r="C95">
-        <v>0.535042489209328</v>
+        <v>0.571084704732155</v>
       </c>
       <c r="D95">
-        <v>14.46185976269267</v>
+        <v>13.35090236280906</v>
       </c>
       <c r="E95">
-        <v>0.5079943874196291</v>
+        <v>0.251034355563413</v>
       </c>
       <c r="F95">
-        <v>9.729823507700528</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.4910025915593341</v>
+        <v>0.399174095518365</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>7.737709446027307</v>
+        <v>7.624496133772643</v>
       </c>
       <c r="J95">
-        <v>4.942695732495436</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
       <c r="L95">
-        <v>7.737709446027307</v>
+        <v>7.624496133772643</v>
       </c>
       <c r="M95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="B96">
-        <v>1093</v>
+        <v>505</v>
       </c>
       <c r="C96">
-        <v>0.4997190124101139</v>
+        <v>0.5216304155906941</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>14.61163962174204</v>
       </c>
       <c r="E96">
-        <v>0.5144458711863116</v>
+        <v>0.4552132964232498</v>
       </c>
       <c r="F96">
-        <v>15.0301772187115</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0.4072975463129529</v>
+        <v>0.5167607280062384</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>9.795826627921931</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>7.621875648350753</v>
       </c>
       <c r="J96">
-        <v>7.732212613364691</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>5.062098499667832</v>
       </c>
       <c r="L96">
-        <v>7.732212613364691</v>
+        <v>7.621875648350753</v>
       </c>
       <c r="M96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1">
-        <v>351</v>
+        <v>433</v>
       </c>
       <c r="B97">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="C97">
-        <v>0.523011460572158</v>
+        <v>0.4593142296990219</v>
       </c>
       <c r="D97">
-        <v>14.76219033961375</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.3264671351275599</v>
+        <v>0.5561305384122933</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>13.62647703367419</v>
       </c>
       <c r="G97">
-        <v>0.4072869325999003</v>
+        <v>0.4466210298698188</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>7.720794730765588</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>7.578100009399977</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
       <c r="L97">
-        <v>7.720794730765588</v>
+        <v>7.578100009399977</v>
       </c>
       <c r="M97" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1">
-        <v>465</v>
+        <v>162</v>
       </c>
       <c r="B98">
-        <v>231</v>
+        <v>1096</v>
       </c>
       <c r="C98">
-        <v>0.5146238319071011</v>
+        <v>0.4499629805216295</v>
       </c>
       <c r="D98">
-        <v>8.096672288379882</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.6933930065625297</v>
+        <v>0.5933697082603094</v>
       </c>
       <c r="F98">
-        <v>11.11816508726393</v>
+        <v>12.68801518369219</v>
       </c>
       <c r="G98">
-        <v>0.3732832462529374</v>
+        <v>0.3585741235617657</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>4.166740518742092</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>7.709257917316487</v>
+        <v>7.528683867949812</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
       <c r="L98">
-        <v>7.709257917316487</v>
+        <v>7.528683867949812</v>
       </c>
       <c r="M98" t="s">
         <v>14</v>
@@ -4439,66 +4439,66 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1">
-        <v>374</v>
+        <v>229</v>
       </c>
       <c r="B99">
-        <v>521</v>
+        <v>30</v>
       </c>
       <c r="C99">
-        <v>0.5661980804040911</v>
+        <v>0.5848987854479093</v>
       </c>
       <c r="D99">
-        <v>4.246696782574412</v>
+        <v>12.83128925576681</v>
       </c>
       <c r="E99">
-        <v>0.5659324894883427</v>
+        <v>0.3068966420807853</v>
       </c>
       <c r="F99">
-        <v>13.48331422685916</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0.3526300390009642</v>
+        <v>0.3879456870536206</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99">
-        <v>2.404471566351862</v>
+        <v>7.505005501428816</v>
       </c>
       <c r="J99">
-        <v>7.630645586959994</v>
+        <v>0</v>
       </c>
       <c r="K99">
         <v>0</v>
       </c>
       <c r="L99">
-        <v>7.630645586959994</v>
+        <v>7.505005501428816</v>
       </c>
       <c r="M99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="B100">
-        <v>485</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>0.4967088414175317</v>
+        <v>0.4032562169796938</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>0.5194107033151418</v>
+        <v>0.5985219991501556</v>
       </c>
       <c r="F100">
-        <v>14.62482085995237</v>
+        <v>12.53635013824295</v>
       </c>
       <c r="G100">
-        <v>0.3542814488485296</v>
+        <v>0.4188142678914387</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>7.596288488725818</v>
+        <v>7.503281346787499</v>
       </c>
       <c r="K100">
         <v>0</v>
       </c>
       <c r="L100">
-        <v>7.596288488725818</v>
+        <v>7.503281346787499</v>
       </c>
       <c r="M100" t="s">
         <v>14</v>
@@ -4521,31 +4521,31 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>270</v>
+        <v>622</v>
       </c>
       <c r="B101">
-        <v>862</v>
+        <v>1604</v>
       </c>
       <c r="C101">
-        <v>0.5249226954347532</v>
+        <v>0.5761632461564431</v>
       </c>
       <c r="D101">
-        <v>14.45003303827008</v>
+        <v>12.84137785831281</v>
       </c>
       <c r="E101">
-        <v>0.4968073012916878</v>
+        <v>0.2468785818656618</v>
       </c>
       <c r="F101">
         <v>0</v>
       </c>
       <c r="G101">
-        <v>0.3481148995046319</v>
+        <v>0.2594085842444281</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>7.585150291569967</v>
+        <v>7.398729951966982</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>7.585150291569967</v>
+        <v>7.398729951966982</v>
       </c>
       <c r="M101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
